--- a/biology/Médecine/Julius_Fromm/Julius_Fromm.xlsx
+++ b/biology/Médecine/Julius_Fromm/Julius_Fromm.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Israel "Julius" Fromm était un entrepreneur allemand d'origine polonaise de religion juive né le 4 mars 1883 à Konin (Pologne) et mort le 12 mai 1945 à Londres (Royaume-Uni). Chimiste de profession, il inventa un procédé de fabrication de préservatifs à partir de caoutchouc en 1912.
 </t>
@@ -511,9 +523,11 @@
           <t>Fromm's Act</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après avoir déposé un brevet en 1916, il démarra une production à grande échelle et distribua son produit sous le nom de Fromm's Act[1],[2] jusqu'en 1938, quand le gouvernement nazi force Fromm à vendre l'entreprise pour 116 000 Reichsmark, une bouchée de pain, à la baronne Elisabeth von Epenstein, la marraine de Hermann Göring.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après avoir déposé un brevet en 1916, il démarra une production à grande échelle et distribua son produit sous le nom de Fromm's Act, jusqu'en 1938, quand le gouvernement nazi force Fromm à vendre l'entreprise pour 116 000 Reichsmark, une bouchée de pain, à la baronne Elisabeth von Epenstein, la marraine de Hermann Göring.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Exil en Angleterre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À la suite de cela, Fromm émigre en Angleterre, où il mourra quelques jours après la capitulation allemande. Après la guerre, son fils Herbert Fromm donne la licence de production à une société brêmoise, maintenant connue sous le nom de Mapa, qui continue de produire des préservatifs sous le nom de Billy Boy[3],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la suite de cela, Fromm émigre en Angleterre, où il mourra quelques jours après la capitulation allemande. Après la guerre, son fils Herbert Fromm donne la licence de production à une société brêmoise, maintenant connue sous le nom de Mapa, qui continue de produire des préservatifs sous le nom de Billy Boy,.
 </t>
         </is>
       </c>
